--- a/RAnalysis/Output/Water_Chem/Chem.Table_forMS.xlsx
+++ b/RAnalysis/Output/Water_Chem/Chem.Table_forMS.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samjg\Documents\Github_repositories\Cvirginica_multistressor\RAnalysis\Output\Water_Chem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA6C1B4C-115D-4D35-B247-C0A19D84AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB30BFB-C492-45E5-A15F-57D6955CDE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chem.Table_forMS" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="266">
   <si>
     <t>temp</t>
   </si>
@@ -763,11 +764,128 @@
       <t>3</t>
     </r>
   </si>
+  <si>
+    <t>Shannon 12/13/2022 :"Salinity= 2 decimals
+pco2=good
+Temperature=1 decimal
+pH= 4 decimals
+REmove HCO3 and CO3 from the table please
+TA= 2 decimal
+Aragonite= 2 decimal"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.25 ± 0.051 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.38 ± 0.065 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.27 ± 0.047 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.36 ± 0.051 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.40 ± 0.055 </t>
+  </si>
+  <si>
+    <t>27.56 ± 0.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.30 ± 0.044 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.56 ± 0.056 </t>
+  </si>
+  <si>
+    <t>23.0 ± 0.1</t>
+  </si>
+  <si>
+    <t>27.1 ± 0.1</t>
+  </si>
+  <si>
+    <t>27.0 ± 0.1</t>
+  </si>
+  <si>
+    <t>23.1 ± 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2563 ± 0.0055 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2807 ± 0.012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6460 ± 0.0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6618 ± 0.0052 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4036 ± 0.0052 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4072 ± 0.0055 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8019 ± 0.0029 </t>
+  </si>
+  <si>
+    <t>7.8018 ± 0.0043</t>
+  </si>
+  <si>
+    <t>1258.86 ± 12.79</t>
+  </si>
+  <si>
+    <t>1268.84 ± 10.92</t>
+  </si>
+  <si>
+    <t>1931.49 ± 7.25</t>
+  </si>
+  <si>
+    <t>1943.57 ± 10.81</t>
+  </si>
+  <si>
+    <t>1969.48 ± 8.14</t>
+  </si>
+  <si>
+    <t>1977.31 ± 6.79</t>
+  </si>
+  <si>
+    <t>1259.68 ± 5.44</t>
+  </si>
+  <si>
+    <t>1256.78 ± 19.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9 ± 0.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 ± 0.02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78 ± 0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66 ± 0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67 ± 0.01 </t>
+  </si>
+  <si>
+    <t>0.55 ± 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 ± 0.01 </t>
+  </si>
+  <si>
+    <t>0.23 ± 0.004</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1287,7 +1405,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1313,6 +1431,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1668,7 +1789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2275,11 +2396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2789,4 +2910,456 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7A2B5E-8DBC-4BFF-A27E-3FDF6FC5A7F7}">
+  <dimension ref="B2:L26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="7" max="8" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.5" x14ac:dyDescent="0.5">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.5" x14ac:dyDescent="0.5">
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:12" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="7">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="7">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="7">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="7">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7">
+        <v>18</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7">
+        <v>18</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="26" spans="2:12" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RAnalysis/Output/Water_Chem/Chem.Table_forMS.xlsx
+++ b/RAnalysis/Output/Water_Chem/Chem.Table_forMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samjg\Documents\Github_repositories\Cvirginica_multistressor\RAnalysis\Output\Water_Chem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB30BFB-C492-45E5-A15F-57D6955CDE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE49C8D-49CC-4F0C-90D9-926ED88EC451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="275">
   <si>
     <t>temp</t>
   </si>
@@ -765,15 +765,6 @@
     </r>
   </si>
   <si>
-    <t>Shannon 12/13/2022 :"Salinity= 2 decimals
-pco2=good
-Temperature=1 decimal
-pH= 4 decimals
-REmove HCO3 and CO3 from the table please
-TA= 2 decimal
-Aragonite= 2 decimal"</t>
-  </si>
-  <si>
     <t xml:space="preserve">17.25 ± 0.051 </t>
   </si>
   <si>
@@ -880,6 +871,36 @@
   </si>
   <si>
     <t>0.23 ± 0.004</t>
+  </si>
+  <si>
+    <t>0.23 ± 0.01</t>
+  </si>
+  <si>
+    <t>17.25 ± 0.05</t>
+  </si>
+  <si>
+    <t>17.38 ± 0.07</t>
+  </si>
+  <si>
+    <t>17.27 ± 0.05</t>
+  </si>
+  <si>
+    <t>17.40 ± 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.36 ± 0.05 </t>
+  </si>
+  <si>
+    <t>27.56 ± 0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.30 ± 0.04 </t>
+  </si>
+  <si>
+    <t>27.56 ± 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2807 ± 0.0120 </t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1426,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1431,9 +1452,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2914,10 +2932,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7A2B5E-8DBC-4BFF-A27E-3FDF6FC5A7F7}">
-  <dimension ref="B2:L26"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3077,22 +3095,22 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>218</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
@@ -3112,22 +3130,22 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>171</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
@@ -3147,22 +3165,22 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>210</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
@@ -3182,22 +3200,22 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>186</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
@@ -3217,22 +3235,22 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>194</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
@@ -3252,22 +3270,22 @@
         <v>18</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>165</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
@@ -3287,22 +3305,22 @@
         <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>202</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
@@ -3322,22 +3340,22 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>178</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3354,10 +3372,428 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="12" t="s">
-        <v>229</v>
-      </c>
+    <row r="22" spans="2:12" ht="4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="B23" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="2:12" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="2:12" ht="20.5" x14ac:dyDescent="0.5">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.5" x14ac:dyDescent="0.5">
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="2:12" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="7">
+        <v>14</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="7">
+        <v>16</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="7">
+        <v>18</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="7">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="7">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="7">
+        <v>18</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="7">
+        <v>18</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="7">
+        <v>18</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
